--- a/HTML/0 Excel SRC Files/Body Program.xlsx
+++ b/HTML/0 Excel SRC Files/Body Program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A035276-9A76-4FB4-9B96-67990F29E7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC22CC-1F3B-43F0-B672-9852997D7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="183">
   <si>
     <t>الفطار | العشاء</t>
   </si>
@@ -621,6 +621,12 @@
   </si>
   <si>
     <t>فواكة دون اضافة سكر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BMR Calc</t>
+  </si>
+  <si>
+    <t>1500 / علشان اخس كيلو كل اسبوع</t>
   </si>
 </sst>
 </file>
@@ -1870,17 +1876,146 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="49" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1891,12 +2026,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,6 +2033,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1979,135 +2114,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="49" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2619,7 +2625,7 @@
   <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2647,80 +2653,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="102"/>
-      <c r="F1" s="138" t="s">
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="141"/>
+      <c r="F1" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="140"/>
-      <c r="L1" s="101" t="s">
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="121"/>
+      <c r="L1" s="140" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="102"/>
-      <c r="O1" s="173" t="s">
+      <c r="M1" s="141"/>
+      <c r="O1" s="144" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="174"/>
-      <c r="R1" s="138" t="s">
+      <c r="P1" s="145"/>
+      <c r="R1" s="120" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="140"/>
+      <c r="S1" s="121"/>
     </row>
     <row r="2" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="101" t="s">
+      <c r="A3" s="140" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="102"/>
-      <c r="F3" s="138" t="s">
+      <c r="B3" s="146"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="141"/>
+      <c r="F3" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="140"/>
-      <c r="L3" s="146" t="s">
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="121"/>
+      <c r="L3" s="142" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="147"/>
-      <c r="O3" s="138" t="s">
+      <c r="M3" s="143"/>
+      <c r="O3" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="140"/>
-      <c r="R3" s="179" t="s">
+      <c r="P3" s="121"/>
+      <c r="R3" s="154" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="180"/>
+      <c r="S3" s="155"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="R4" s="175" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
+      <c r="L4" s="113"/>
+      <c r="M4" s="113"/>
+      <c r="N4" s="101"/>
+      <c r="O4" s="101"/>
+      <c r="R4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="176"/>
+      <c r="S4" s="110"/>
     </row>
     <row r="5" spans="1:19" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -2735,36 +2741,36 @@
       <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105" t="s">
+      <c r="E5" s="113"/>
+      <c r="F5" s="148" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150"/>
       <c r="O5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="175" t="s">
+      <c r="R5" s="109" t="s">
         <v>177</v>
       </c>
-      <c r="S5" s="176"/>
+      <c r="S5" s="110"/>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="142" t="s">
+      <c r="A6" s="102" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="104" t="s">
         <v>106</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="104"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
@@ -2774,13 +2780,13 @@
       <c r="J6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="O6" s="148" t="s">
+      <c r="O6" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="175" t="s">
+      <c r="R6" s="109" t="s">
         <v>175</v>
       </c>
-      <c r="S6" s="176"/>
+      <c r="S6" s="110"/>
     </row>
     <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -2795,7 +2801,7 @@
       <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="104"/>
+      <c r="E7" s="113"/>
       <c r="F7" s="11" t="s">
         <v>108</v>
       </c>
@@ -2805,13 +2811,13 @@
       <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="148" t="s">
+      <c r="O7" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="R7" s="175" t="s">
+      <c r="R7" s="109" t="s">
         <v>174</v>
       </c>
-      <c r="S7" s="176"/>
+      <c r="S7" s="110"/>
     </row>
     <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2826,19 +2832,19 @@
       <c r="D8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="104"/>
+      <c r="E8" s="113"/>
       <c r="F8" s="9" t="s">
         <v>109</v>
       </c>
       <c r="H8" s="9"/>
       <c r="J8" s="9"/>
-      <c r="O8" s="148" t="s">
+      <c r="O8" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="175" t="s">
+      <c r="R8" s="109" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="176"/>
+      <c r="S8" s="110"/>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -2853,19 +2859,19 @@
       <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="104"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="9"/>
       <c r="J9" s="9"/>
-      <c r="O9" s="148" t="s">
+      <c r="O9" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="175" t="s">
+      <c r="R9" s="109" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="176"/>
+      <c r="S9" s="110"/>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -2877,15 +2883,15 @@
       <c r="C10" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="104"/>
+      <c r="E10" s="113"/>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="O10" s="148"/>
-      <c r="R10" s="177" t="s">
+      <c r="O10" s="106"/>
+      <c r="R10" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="178"/>
+      <c r="S10" s="112"/>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -2898,8 +2904,8 @@
       <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="O11" s="148"/>
+      <c r="E11" s="113"/>
+      <c r="O11" s="106"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -2908,8 +2914,8 @@
       <c r="D12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="104"/>
-      <c r="O12" s="148"/>
+      <c r="E12" s="113"/>
+      <c r="O12" s="106"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
@@ -2918,8 +2924,8 @@
       <c r="D13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="104"/>
-      <c r="O13" s="149" t="s">
+      <c r="E13" s="113"/>
+      <c r="O13" s="107" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2927,55 +2933,63 @@
       <c r="A14" s="13"/>
       <c r="B14" s="73"/>
       <c r="C14" s="82"/>
-      <c r="E14" s="104"/>
-      <c r="O14" s="148" t="s">
+      <c r="E14" s="113"/>
+      <c r="O14" s="106" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="145" t="s">
+      <c r="A15" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="143" t="s">
+      <c r="B15" s="103" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="104"/>
-      <c r="O15" s="148" t="s">
+      <c r="E15" s="113"/>
+      <c r="O15" s="106" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="104"/>
-      <c r="O16" s="150" t="s">
+      <c r="E16" s="113"/>
+      <c r="O16" s="108" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="114" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="151"/>
       <c r="D17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="104"/>
-    </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="113"/>
+      <c r="L17" s="114" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="116"/>
+    </row>
+    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="152" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="112"/>
+      <c r="C18" s="153"/>
       <c r="D18" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="104"/>
+      <c r="E18" s="113"/>
+      <c r="L18" s="117" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" s="119"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
@@ -2984,7 +2998,7 @@
       <c r="B19" s="22"/>
       <c r="C19" s="71"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="104"/>
+      <c r="E19" s="113"/>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -2993,19 +3007,19 @@
       <c r="B20" s="22"/>
       <c r="C20" s="71"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="108" t="s">
+      <c r="E20" s="113"/>
+      <c r="F20" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="169"/>
-      <c r="L20" s="108" t="s">
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
+      <c r="L20" s="114" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="169"/>
-      <c r="O20" s="171" t="s">
+      <c r="M20" s="116"/>
+      <c r="O20" s="122" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3016,53 +3030,53 @@
       <c r="B21" s="21"/>
       <c r="C21" s="72"/>
       <c r="D21" s="79"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="167"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="168"/>
-      <c r="L21" s="167">
+      <c r="E21" s="113"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="119"/>
+      <c r="L21" s="117">
         <v>29</v>
       </c>
-      <c r="M21" s="168"/>
-      <c r="O21" s="172"/>
+      <c r="M21" s="119"/>
+      <c r="O21" s="123"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="124" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="151"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="153"/>
-      <c r="F23" s="158" t="s">
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="F23" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="157"/>
-      <c r="H23" s="157"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="159"/>
-      <c r="L23" s="163" t="s">
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="132"/>
+      <c r="L23" s="136" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="164"/>
+      <c r="M23" s="137"/>
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="154"/>
-      <c r="B24" s="155"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="162"/>
-      <c r="L24" s="165"/>
-      <c r="M24" s="166"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="129"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="135"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="139"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L25" s="20"/>
@@ -3083,26 +3097,11 @@
       <c r="L31" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="F23:J24"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
+  <mergeCells count="32">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F3:J3"/>
@@ -3112,8 +3111,25 @@
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="F23:J24"/>
+    <mergeCell ref="L23:M24"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F23" location="Sports!A1" display="Sport" xr:uid="{6B818B34-5C1A-4B56-9D99-C9C095AB367D}"/>
@@ -3152,10 +3168,10 @@
       <c r="C1" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="156" t="s">
         <v>139</v>
       </c>
-      <c r="E1" s="113"/>
+      <c r="E1" s="156"/>
     </row>
     <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="90" t="s">
@@ -3279,12 +3295,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="157" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="8:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="115"/>
+      <c r="H2" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3317,10 +3333,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="159" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="117"/>
+      <c r="B1" s="160"/>
       <c r="D1" s="85" t="s">
         <v>43</v>
       </c>
@@ -3499,12 +3515,12 @@
       <c r="I1" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="157" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="167" t="s">
         <v>77</v>
       </c>
       <c r="B2" s="33" t="s">
@@ -3513,7 +3529,7 @@
       <c r="C2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="E2" s="161" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="57" t="s">
@@ -3526,15 +3542,15 @@
         <v>72</v>
       </c>
       <c r="I2" s="59"/>
-      <c r="K2" s="115"/>
+      <c r="K2" s="158"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
+      <c r="A3" s="167"/>
       <c r="B3" s="34"/>
       <c r="C3" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="119"/>
+      <c r="E3" s="162"/>
       <c r="F3" s="60" t="s">
         <v>44</v>
       </c>
@@ -3545,10 +3561,10 @@
       <c r="I3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124"/>
+      <c r="A4" s="167"/>
       <c r="B4" s="34"/>
       <c r="C4" s="38"/>
-      <c r="E4" s="120"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="63" t="s">
         <v>45</v>
       </c>
@@ -3561,15 +3577,15 @@
       <c r="I4" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="169" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="34"/>
       <c r="C5" s="38"/>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="172" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="52" t="s">
@@ -3582,13 +3598,13 @@
       <c r="I5" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="K5" s="127"/>
+      <c r="K5" s="170"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
+      <c r="A6" s="167"/>
       <c r="B6" s="34"/>
       <c r="C6" s="38"/>
-      <c r="E6" s="130"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="47" t="s">
         <v>82</v>
       </c>
@@ -3597,7 +3613,7 @@
       <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="167" t="s">
         <v>75</v>
       </c>
       <c r="B7" s="35" t="s">
@@ -3606,7 +3622,7 @@
       <c r="C7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="131"/>
+      <c r="E7" s="174"/>
       <c r="F7" s="55" t="s">
         <v>89</v>
       </c>
@@ -3615,109 +3631,109 @@
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="135" t="s">
+      <c r="A8" s="167"/>
+      <c r="B8" s="178" t="s">
         <v>55</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="132" t="s">
+      <c r="E8" s="175" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="179">
         <v>1.8229166666666667</v>
       </c>
       <c r="H8" s="50"/>
       <c r="I8" s="51"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
-      <c r="B9" s="135"/>
+      <c r="A9" s="167"/>
+      <c r="B9" s="178"/>
       <c r="C9" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="133"/>
+      <c r="E9" s="176"/>
       <c r="F9" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G9" s="137"/>
+      <c r="G9" s="180"/>
       <c r="H9" s="45"/>
       <c r="I9" s="46"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
+      <c r="A10" s="167"/>
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C10" s="38"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="167" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="36" t="s">
         <v>57</v>
       </c>
       <c r="C11" s="38"/>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="177" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="125" t="s">
+      <c r="I11" s="168" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="124"/>
+      <c r="A12" s="167"/>
       <c r="B12" s="3"/>
       <c r="C12" s="38"/>
-      <c r="E12" s="124"/>
+      <c r="E12" s="167"/>
       <c r="F12" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="I12" s="125"/>
+      <c r="I12" s="168"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
+      <c r="A13" s="167"/>
       <c r="B13" s="3"/>
       <c r="C13" s="38"/>
-      <c r="E13" s="124"/>
+      <c r="E13" s="167"/>
       <c r="F13" s="68"/>
-      <c r="I13" s="125"/>
+      <c r="I13" s="168"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
+      <c r="A14" s="167"/>
       <c r="B14" s="3"/>
       <c r="C14" s="38"/>
-      <c r="E14" s="124"/>
+      <c r="E14" s="167"/>
       <c r="F14" s="68"/>
       <c r="I14" s="70" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="124"/>
+      <c r="A15" s="167"/>
       <c r="B15" s="3"/>
       <c r="C15" s="38"/>
-      <c r="E15" s="128"/>
+      <c r="E15" s="171"/>
       <c r="F15" s="69"/>
       <c r="I15" s="70" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
+      <c r="A16" s="167"/>
       <c r="B16" s="3"/>
       <c r="C16" s="38"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="167" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="35" t="s">
@@ -3726,28 +3742,28 @@
       <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
+      <c r="A18" s="167"/>
       <c r="B18" s="3"/>
       <c r="C18" s="38"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
+      <c r="A19" s="167"/>
       <c r="B19" s="3"/>
       <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="128"/>
+      <c r="A20" s="171"/>
       <c r="B20" s="37"/>
       <c r="C20" s="39"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="122"/>
-      <c r="C22" s="123"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
@@ -3854,7 +3870,7 @@
       <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="114" t="s">
+      <c r="H1" s="157" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3877,7 +3893,7 @@
       <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="115"/>
+      <c r="H2" s="158"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">

--- a/HTML/0 Excel SRC Files/Body Program.xlsx
+++ b/HTML/0 Excel SRC Files/Body Program.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAC22CC-1F3B-43F0-B672-9852997D7923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1046B8-522E-49F6-A889-5A6346F9BFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
@@ -1900,49 +1900,70 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1993,52 +2014,31 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="49" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2624,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2653,80 +2653,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="141"/>
-      <c r="F1" s="120" t="s">
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
+      <c r="F1" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="121"/>
-      <c r="L1" s="140" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="110"/>
+      <c r="L1" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="141"/>
-      <c r="O1" s="144" t="s">
+      <c r="M1" s="121"/>
+      <c r="O1" s="117" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="145"/>
-      <c r="R1" s="120" t="s">
+      <c r="P1" s="118"/>
+      <c r="R1" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="121"/>
+      <c r="S1" s="110"/>
     </row>
     <row r="2" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="146"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="141"/>
-      <c r="F3" s="120" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="121"/>
+      <c r="F3" s="109" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="121"/>
-      <c r="L3" s="142" t="s">
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="110"/>
+      <c r="L3" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="143"/>
-      <c r="O3" s="120" t="s">
+      <c r="M3" s="148"/>
+      <c r="O3" s="109" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="121"/>
-      <c r="R3" s="154" t="s">
+      <c r="P3" s="110"/>
+      <c r="R3" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="155"/>
+      <c r="S3" s="112"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="123"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="123"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="123"/>
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
       <c r="N4" s="101"/>
       <c r="O4" s="101"/>
-      <c r="R4" s="109" t="s">
+      <c r="R4" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="110"/>
+      <c r="S4" s="153"/>
     </row>
     <row r="5" spans="1:19" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -2741,21 +2741,21 @@
       <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="148" t="s">
+      <c r="E5" s="123"/>
+      <c r="F5" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="149"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="149"/>
-      <c r="J5" s="150"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="126"/>
       <c r="O5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="109" t="s">
+      <c r="R5" s="152" t="s">
         <v>177</v>
       </c>
-      <c r="S5" s="110"/>
+      <c r="S5" s="153"/>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
@@ -2770,7 +2770,7 @@
       <c r="D6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="113"/>
+      <c r="E6" s="123"/>
       <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
@@ -2783,10 +2783,10 @@
       <c r="O6" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="109" t="s">
+      <c r="R6" s="152" t="s">
         <v>175</v>
       </c>
-      <c r="S6" s="110"/>
+      <c r="S6" s="153"/>
     </row>
     <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -2801,7 +2801,7 @@
       <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="113"/>
+      <c r="E7" s="123"/>
       <c r="F7" s="11" t="s">
         <v>108</v>
       </c>
@@ -2814,10 +2814,10 @@
       <c r="O7" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="R7" s="109" t="s">
+      <c r="R7" s="152" t="s">
         <v>174</v>
       </c>
-      <c r="S7" s="110"/>
+      <c r="S7" s="153"/>
     </row>
     <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2832,7 +2832,7 @@
       <c r="D8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="113"/>
+      <c r="E8" s="123"/>
       <c r="F8" s="9" t="s">
         <v>109</v>
       </c>
@@ -2841,10 +2841,10 @@
       <c r="O8" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="109" t="s">
+      <c r="R8" s="152" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="110"/>
+      <c r="S8" s="153"/>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -2859,7 +2859,7 @@
       <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="123"/>
       <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
@@ -2868,10 +2868,10 @@
       <c r="O9" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="109" t="s">
+      <c r="R9" s="152" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="110"/>
+      <c r="S9" s="153"/>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -2883,15 +2883,15 @@
       <c r="C10" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="113"/>
+      <c r="E10" s="123"/>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
       <c r="J10" s="10"/>
       <c r="O10" s="106"/>
-      <c r="R10" s="111" t="s">
+      <c r="R10" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="112"/>
+      <c r="S10" s="155"/>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -2904,7 +2904,7 @@
       <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="113"/>
+      <c r="E11" s="123"/>
       <c r="O11" s="106"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
       <c r="D12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="113"/>
+      <c r="E12" s="123"/>
       <c r="O12" s="106"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2924,7 +2924,7 @@
       <c r="D13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="113"/>
+      <c r="E13" s="123"/>
       <c r="O13" s="107" t="s">
         <v>119</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="A14" s="13"/>
       <c r="B14" s="73"/>
       <c r="C14" s="82"/>
-      <c r="E14" s="113"/>
+      <c r="E14" s="123"/>
       <c r="O14" s="106" t="s">
         <v>6</v>
       </c>
@@ -2948,48 +2948,48 @@
       <c r="C15" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="113"/>
+      <c r="E15" s="123"/>
       <c r="O15" s="106" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="113"/>
+      <c r="E16" s="123"/>
       <c r="O16" s="108" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="114" t="s">
+      <c r="A17" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="115"/>
-      <c r="C17" s="151"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="113"/>
-      <c r="L17" s="114" t="s">
+      <c r="E17" s="123"/>
+      <c r="L17" s="113" t="s">
         <v>181</v>
       </c>
-      <c r="M17" s="116"/>
+      <c r="M17" s="114"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="152" t="s">
+      <c r="B18" s="129" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="153"/>
+      <c r="C18" s="130"/>
       <c r="D18" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="113"/>
-      <c r="L18" s="117" t="s">
+      <c r="E18" s="123"/>
+      <c r="L18" s="115" t="s">
         <v>182</v>
       </c>
-      <c r="M18" s="119"/>
+      <c r="M18" s="116"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
@@ -2998,7 +2998,7 @@
       <c r="B19" s="22"/>
       <c r="C19" s="71"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="113"/>
+      <c r="E19" s="123"/>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -3007,19 +3007,19 @@
       <c r="B20" s="22"/>
       <c r="C20" s="71"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="114" t="s">
+      <c r="E20" s="123"/>
+      <c r="F20" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="L20" s="114" t="s">
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="114"/>
+      <c r="L20" s="113" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="116"/>
-      <c r="O20" s="122" t="s">
+      <c r="M20" s="114"/>
+      <c r="O20" s="150" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3030,53 +3030,53 @@
       <c r="B21" s="21"/>
       <c r="C21" s="72"/>
       <c r="D21" s="79"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="118"/>
-      <c r="J21" s="119"/>
-      <c r="L21" s="117">
+      <c r="E21" s="123"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="116"/>
+      <c r="L21" s="115">
         <v>29</v>
       </c>
-      <c r="M21" s="119"/>
-      <c r="O21" s="123"/>
+      <c r="M21" s="116"/>
+      <c r="O21" s="151"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="126"/>
-      <c r="F23" s="130" t="s">
+      <c r="B23" s="132"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="F23" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="132"/>
-      <c r="L23" s="136" t="s">
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="138"/>
+      <c r="J23" s="139"/>
+      <c r="L23" s="143" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="137"/>
+      <c r="M23" s="144"/>
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="129"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="134"/>
-      <c r="J24" s="135"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="139"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="135"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="136"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="141"/>
+      <c r="J24" s="142"/>
+      <c r="L24" s="145"/>
+      <c r="M24" s="146"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L25" s="20"/>
@@ -3098,19 +3098,15 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="E5:E21"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="F23:J24"/>
     <mergeCell ref="L23:M24"/>
@@ -3120,16 +3116,20 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F3:J3"/>
+    <mergeCell ref="E5:E21"/>
+    <mergeCell ref="F5:J5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F23" location="Sports!A1" display="Sport" xr:uid="{6B818B34-5C1A-4B56-9D99-C9C095AB367D}"/>
@@ -3317,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0621CD-A6D5-4DEE-8E29-96FEA948796F}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3391,12 +3391,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="96"/>
+      <c r="A7" s="94">
+        <v>86.45</v>
+      </c>
+      <c r="B7" s="95">
+        <v>45211</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A8" s="94"/>
-      <c r="B8" s="96"/>
+      <c r="B8" s="95"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="94"/>

--- a/HTML/0 Excel SRC Files/Body Program.xlsx
+++ b/HTML/0 Excel SRC Files/Body Program.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A1046B8-522E-49F6-A889-5A6346F9BFBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A58B62-4B80-49D0-B574-FE0CB10C63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1900,28 +1900,139 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="49" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1929,117 +2040,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="49" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2653,80 +2653,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="132" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="F1" s="109" t="s">
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="133"/>
+      <c r="F1" s="143" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="110"/>
-      <c r="L1" s="119" t="s">
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="145"/>
+      <c r="L1" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="121"/>
-      <c r="O1" s="117" t="s">
+      <c r="M1" s="133"/>
+      <c r="O1" s="154" t="s">
         <v>164</v>
       </c>
-      <c r="P1" s="118"/>
-      <c r="R1" s="109" t="s">
+      <c r="P1" s="155"/>
+      <c r="R1" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="110"/>
+      <c r="S1" s="145"/>
     </row>
     <row r="2" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="121"/>
-      <c r="F3" s="109" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="133"/>
+      <c r="F3" s="143" t="s">
         <v>172</v>
       </c>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="110"/>
-      <c r="L3" s="147" t="s">
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="145"/>
+      <c r="L3" s="134" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="148"/>
-      <c r="O3" s="109" t="s">
+      <c r="M3" s="135"/>
+      <c r="O3" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="P3" s="110"/>
-      <c r="R3" s="111" t="s">
+      <c r="P3" s="145"/>
+      <c r="R3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="S3" s="112"/>
+      <c r="S3" s="153"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="123"/>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="123"/>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
       <c r="N4" s="101"/>
       <c r="O4" s="101"/>
-      <c r="R4" s="152" t="s">
+      <c r="R4" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="153"/>
+      <c r="S4" s="112"/>
     </row>
     <row r="5" spans="1:19" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -2741,21 +2741,21 @@
       <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="123"/>
-      <c r="F5" s="124" t="s">
+      <c r="E5" s="115"/>
+      <c r="F5" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="148"/>
       <c r="O5" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="152" t="s">
+      <c r="R5" s="111" t="s">
         <v>177</v>
       </c>
-      <c r="S5" s="153"/>
+      <c r="S5" s="112"/>
     </row>
     <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="102" t="s">
@@ -2770,7 +2770,7 @@
       <c r="D6" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="123"/>
+      <c r="E6" s="115"/>
       <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
@@ -2783,10 +2783,10 @@
       <c r="O6" s="106" t="s">
         <v>132</v>
       </c>
-      <c r="R6" s="152" t="s">
+      <c r="R6" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="S6" s="153"/>
+      <c r="S6" s="112"/>
     </row>
     <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
@@ -2801,7 +2801,7 @@
       <c r="D7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="123"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="11" t="s">
         <v>108</v>
       </c>
@@ -2814,10 +2814,10 @@
       <c r="O7" s="106" t="s">
         <v>133</v>
       </c>
-      <c r="R7" s="152" t="s">
+      <c r="R7" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="S7" s="153"/>
+      <c r="S7" s="112"/>
     </row>
     <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2832,7 +2832,7 @@
       <c r="D8" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="123"/>
+      <c r="E8" s="115"/>
       <c r="F8" s="9" t="s">
         <v>109</v>
       </c>
@@ -2841,10 +2841,10 @@
       <c r="O8" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="R8" s="152" t="s">
+      <c r="R8" s="111" t="s">
         <v>100</v>
       </c>
-      <c r="S8" s="153"/>
+      <c r="S8" s="112"/>
     </row>
     <row r="9" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
@@ -2859,7 +2859,7 @@
       <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="123"/>
+      <c r="E9" s="115"/>
       <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
@@ -2868,10 +2868,10 @@
       <c r="O9" s="106" t="s">
         <v>131</v>
       </c>
-      <c r="R9" s="152" t="s">
+      <c r="R9" s="111" t="s">
         <v>176</v>
       </c>
-      <c r="S9" s="153"/>
+      <c r="S9" s="112"/>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -2883,15 +2883,15 @@
       <c r="C10" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="123"/>
+      <c r="E10" s="115"/>
       <c r="F10" s="10"/>
       <c r="H10" s="10"/>
       <c r="J10" s="10"/>
       <c r="O10" s="106"/>
-      <c r="R10" s="154" t="s">
+      <c r="R10" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="155"/>
+      <c r="S10" s="114"/>
     </row>
     <row r="11" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
@@ -2904,7 +2904,7 @@
       <c r="D11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="123"/>
+      <c r="E11" s="115"/>
       <c r="O11" s="106"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2914,7 +2914,7 @@
       <c r="D12" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E12" s="123"/>
+      <c r="E12" s="115"/>
       <c r="O12" s="106"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2924,7 +2924,7 @@
       <c r="D13" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="123"/>
+      <c r="E13" s="115"/>
       <c r="O13" s="107" t="s">
         <v>119</v>
       </c>
@@ -2933,7 +2933,7 @@
       <c r="A14" s="13"/>
       <c r="B14" s="73"/>
       <c r="C14" s="82"/>
-      <c r="E14" s="123"/>
+      <c r="E14" s="115"/>
       <c r="O14" s="106" t="s">
         <v>6</v>
       </c>
@@ -2948,48 +2948,48 @@
       <c r="C15" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="123"/>
+      <c r="E15" s="115"/>
       <c r="O15" s="106" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="123"/>
+      <c r="E16" s="115"/>
       <c r="O16" s="108" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="113" t="s">
+      <c r="A17" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="127"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="137"/>
+      <c r="C17" s="149"/>
       <c r="D17" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="123"/>
-      <c r="L17" s="113" t="s">
+      <c r="E17" s="115"/>
+      <c r="L17" s="136" t="s">
         <v>181</v>
       </c>
-      <c r="M17" s="114"/>
+      <c r="M17" s="138"/>
     </row>
     <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="129" t="s">
+      <c r="B18" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="130"/>
+      <c r="C18" s="151"/>
       <c r="D18" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="123"/>
-      <c r="L18" s="115" t="s">
+      <c r="E18" s="115"/>
+      <c r="L18" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="M18" s="116"/>
+      <c r="M18" s="141"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
@@ -2998,7 +2998,7 @@
       <c r="B19" s="22"/>
       <c r="C19" s="71"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="123"/>
+      <c r="E19" s="115"/>
     </row>
     <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
@@ -3007,19 +3007,19 @@
       <c r="B20" s="22"/>
       <c r="C20" s="71"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="113" t="s">
+      <c r="E20" s="115"/>
+      <c r="F20" s="136" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="114"/>
-      <c r="L20" s="113" t="s">
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="138"/>
+      <c r="L20" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="M20" s="114"/>
-      <c r="O20" s="150" t="s">
+      <c r="M20" s="138"/>
+      <c r="O20" s="109" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3030,53 +3030,53 @@
       <c r="B21" s="21"/>
       <c r="C21" s="72"/>
       <c r="D21" s="79"/>
-      <c r="E21" s="123"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="116"/>
-      <c r="L21" s="115">
+      <c r="E21" s="115"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
+      <c r="L21" s="139">
         <v>29</v>
       </c>
-      <c r="M21" s="116"/>
-      <c r="O21" s="151"/>
+      <c r="M21" s="141"/>
+      <c r="O21" s="110"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L22" s="20"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="131" t="s">
+      <c r="A23" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="F23" s="137" t="s">
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="F23" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="139"/>
-      <c r="L23" s="143" t="s">
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+      <c r="L23" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="M23" s="144"/>
+      <c r="M23" s="129"/>
       <c r="O23" s="76"/>
     </row>
     <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="134"/>
-      <c r="B24" s="135"/>
-      <c r="C24" s="135"/>
-      <c r="D24" s="136"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="142"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="146"/>
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="121"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
+      <c r="L24" s="130"/>
+      <c r="M24" s="131"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="L25" s="20"/>
@@ -3098,15 +3098,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O3:P3"/>
     <mergeCell ref="A23:D24"/>
     <mergeCell ref="F23:J24"/>
     <mergeCell ref="L23:M24"/>
@@ -3123,13 +3120,16 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="F1:J1"/>
     <mergeCell ref="A17:C17"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="R8:S8"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O3:P3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F23" location="Sports!A1" display="Sport" xr:uid="{6B818B34-5C1A-4B56-9D99-C9C095AB367D}"/>
@@ -3318,7 +3318,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3399,8 +3399,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="95"/>
+      <c r="A8" s="94">
+        <v>85.55</v>
+      </c>
+      <c r="B8" s="95">
+        <v>45227</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A9" s="94"/>

--- a/HTML/0 Excel SRC Files/Body Program.xlsx
+++ b/HTML/0 Excel SRC Files/Body Program.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A58B62-4B80-49D0-B574-FE0CB10C63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ED36B7-C1AA-4E57-8F82-6305C8AE7F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
-    <sheet name="Kidney" sheetId="8" r:id="rId2"/>
-    <sheet name="Drinks" sheetId="7" r:id="rId3"/>
+    <sheet name="Advise" sheetId="9" r:id="rId2"/>
+    <sheet name="Kidney" sheetId="8" r:id="rId3"/>
     <sheet name="W(KG)" sheetId="6" r:id="rId4"/>
     <sheet name="Clothes" sheetId="3" r:id="rId5"/>
     <sheet name="Suit" sheetId="4" r:id="rId6"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="199">
   <si>
     <t>الفطار | العشاء</t>
   </si>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">زبادي </t>
   </si>
   <si>
-    <t>مشروبات</t>
-  </si>
-  <si>
     <t>لسان عصفور</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>جزل</t>
   </si>
   <si>
-    <t>بيضة مسلوقة فقط</t>
-  </si>
-  <si>
     <t>Length</t>
   </si>
   <si>
@@ -200,9 +194,6 @@
     <t>Shoes</t>
   </si>
   <si>
-    <t>--&gt; Cloths &lt;--</t>
-  </si>
-  <si>
     <t>انواع البنطلونات الجينس</t>
   </si>
   <si>
@@ -213,9 +204,6 @@
   </si>
   <si>
     <t xml:space="preserve">عدم الغسيل كتير + عدم استخدام مرحلة العصر </t>
-  </si>
-  <si>
-    <t>انواع الريحة لازم في الخطوبة</t>
   </si>
   <si>
     <t>ازاي تحافظ علي اللبس</t>
@@ -369,63 +357,27 @@
     <t>Omega 3</t>
   </si>
   <si>
-    <t>تونة - سلمون</t>
-  </si>
-  <si>
-    <t>بلطي - جمبري</t>
-  </si>
-  <si>
-    <t>جزر - بسلة</t>
-  </si>
-  <si>
-    <t>حمص - فاصوليا بيضاء</t>
-  </si>
-  <si>
-    <t>النسب اليومية</t>
-  </si>
-  <si>
-    <t>Notes  &amp; Examples</t>
-  </si>
-  <si>
     <t>الاكل ببطئ الترتيب ( شوربة دافية ، سلطات ، الطبق الرئيسي )</t>
   </si>
   <si>
-    <t>--&gt; Gym &amp; Sport &lt;--</t>
-  </si>
-  <si>
     <t>تسخين الجسم و رفع درجة الحرارة و تمارين اطالة قبل التمرين</t>
   </si>
   <si>
     <t>ممارسة الرياضة لمدة لا تقل عن 60 دقيقة في المرة لضمان حرق الدهون</t>
   </si>
   <si>
-    <t>1.5 gm x Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100:400مل قهوة يومي </t>
-  </si>
-  <si>
     <t>خيار - طماطم</t>
   </si>
   <si>
     <t>جزر- خس</t>
   </si>
   <si>
-    <t>فاصوليا خضراء - لوبيا</t>
-  </si>
-  <si>
     <t>Weight (KG)</t>
   </si>
   <si>
-    <t>1.5*90=139.5 gm</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
-    <t>Salts</t>
-  </si>
-  <si>
     <t>Carbohydrates</t>
   </si>
   <si>
@@ -448,9 +400,6 @@
   </si>
   <si>
     <t>Weight (KG) / L</t>
-  </si>
-  <si>
-    <t>بس انا قولت 89 لعزة</t>
   </si>
   <si>
     <t>كٌلي</t>
@@ -628,12 +577,111 @@
   <si>
     <t>1500 / علشان اخس كيلو كل اسبوع</t>
   </si>
+  <si>
+    <t>انواع العطور</t>
+  </si>
+  <si>
+    <t>نصائح</t>
+  </si>
+  <si>
+    <t>ايه هايحصل في جسمك لو بدلت السكر والدقيق بنشويات صحية</t>
+  </si>
+  <si>
+    <t>النوم و الرياضة</t>
+  </si>
+  <si>
+    <t>الاكل</t>
+  </si>
+  <si>
+    <t>مشروبات / يومي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100:400مل قهوة </t>
+  </si>
+  <si>
+    <t>جمبري</t>
+  </si>
+  <si>
+    <t xml:space="preserve">بلطي مشوي </t>
+  </si>
+  <si>
+    <t>سلمون</t>
+  </si>
+  <si>
+    <t>تونة</t>
+  </si>
+  <si>
+    <t>115 / 100 gm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">النسب اليومية gm </t>
+  </si>
+  <si>
+    <t>Weight (W) X gm</t>
+  </si>
+  <si>
+    <t>10/ 1 Cap</t>
+  </si>
+  <si>
+    <t>Cal/100 gm</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Cloths</t>
+  </si>
+  <si>
+    <t>بيضة مسلوقة</t>
+  </si>
+  <si>
+    <t>بسلة</t>
+  </si>
+  <si>
+    <t>جزر</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حمص </t>
+  </si>
+  <si>
+    <t>فاصوليا بيضاء</t>
+  </si>
+  <si>
+    <t>فاصوليا خضراء</t>
+  </si>
+  <si>
+    <t>لوبيا</t>
+  </si>
+  <si>
+    <t>ترمس</t>
+  </si>
+  <si>
+    <t>Dr Waad Amin - Fitness Nutritionist</t>
+  </si>
+  <si>
+    <t>يفضل اقل من 2 جم</t>
+  </si>
+  <si>
+    <t>K بوتاسيوم</t>
+  </si>
+  <si>
+    <t>Ph فسفور</t>
+  </si>
+  <si>
+    <t>Na صوديوم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ca كالسيوم </t>
+  </si>
+  <si>
+    <t>Mg مغانسيوم</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,21 +815,29 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -797,12 +853,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -964,17 +1014,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1074,15 +1113,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1153,19 +1183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1382,32 +1399,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1416,30 +1407,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1495,35 +1462,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1562,13 +1500,35 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1576,7 +1536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1599,6 +1559,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1608,70 +1571,49 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1683,154 +1625,124 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1839,35 +1751,35 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1879,137 +1791,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="46" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="48" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="44" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="46" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="49" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2017,31 +1821,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2050,34 +1845,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2086,34 +1866,124 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="1" fillId="12" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="1" fillId="11" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2147,7 +2017,7 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2191,7 +2061,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>84557</xdr:rowOff>
+      <xdr:rowOff>75032</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2622,520 +2492,488 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D24"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="0.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="1" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="0.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="1" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="0.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="1"/>
-    <col min="19" max="19" width="13.140625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="91"/>
+      <c r="F1" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="95"/>
+      <c r="I1" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="127">
+        <v>77.5</v>
+      </c>
+      <c r="C2" s="136" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="127">
+        <v>18</v>
+      </c>
+      <c r="E2" s="91"/>
+      <c r="F2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="J2" s="142" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="128">
+        <v>98</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="128">
+        <v>22</v>
+      </c>
+      <c r="E3" s="91"/>
+      <c r="F3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" s="127"/>
+      <c r="I3" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="133"/>
-      <c r="F1" s="143" t="s">
+      <c r="J3" s="142" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="128">
+        <v>76</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="128">
+        <v>22</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" s="127"/>
+      <c r="I4" s="87" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="144"/>
-      <c r="J1" s="145"/>
-      <c r="L1" s="132" t="s">
+      <c r="J4" s="142" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="128">
+        <v>61</v>
+      </c>
+      <c r="C5" s="138" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="129">
+        <v>22</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G5" s="128"/>
+      <c r="I5" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="J5" s="142" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="130"/>
+      <c r="C6" s="137" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="128">
+        <v>40</v>
+      </c>
+      <c r="E6" s="91"/>
+      <c r="F6" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="128"/>
+      <c r="I6" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="142" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="128" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="134"/>
+      <c r="I7" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="142" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="142" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="130"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="127"/>
+      <c r="I9" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="J9" s="143" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="128"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="128"/>
+    </row>
+    <row r="11" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="133" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="130"/>
+      <c r="C11" s="139" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="E11" s="91"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="128"/>
+      <c r="I11" s="92" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="133"/>
-      <c r="O1" s="154" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="155"/>
-      <c r="R1" s="143" t="s">
-        <v>116</v>
-      </c>
-      <c r="S1" s="145"/>
-    </row>
-    <row r="2" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132" t="s">
+      <c r="J11" s="93"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="91"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="128"/>
+      <c r="I12" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="66">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="131" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="127">
+        <v>69</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="127">
+        <v>41</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="134"/>
+      <c r="I13" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J13" s="66">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="131" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="128">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D14" s="127">
+        <v>84</v>
+      </c>
+      <c r="E14" s="91"/>
+      <c r="F14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="68" t="s">
+        <v>181</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J14" s="66" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="132" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="128">
         <v>169</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="133"/>
-      <c r="F3" s="143" t="s">
-        <v>172</v>
-      </c>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
-      <c r="J3" s="145"/>
-      <c r="L3" s="134" t="s">
+      <c r="E15" s="91"/>
+      <c r="F15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="127"/>
+      <c r="I15" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="J15" s="66">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="132" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="129"/>
+      <c r="C16" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="128">
+        <v>142</v>
+      </c>
+      <c r="E16" s="91"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="128"/>
+      <c r="I16" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="140" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="135"/>
+      <c r="C17" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="128">
+        <v>35</v>
+      </c>
+      <c r="E17" s="91"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="128"/>
+      <c r="I17" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="J17" s="66">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="144"/>
+      <c r="C18" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="128">
+        <v>120</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="128"/>
+      <c r="I18" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="66"/>
+    </row>
+    <row r="19" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="129"/>
+      <c r="C19" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="128">
+        <v>100</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="134"/>
+      <c r="I19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="67"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="134"/>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="129">
+        <v>75</v>
+      </c>
+      <c r="I20" s="94" t="s">
         <v>179</v>
       </c>
-      <c r="M3" s="135"/>
-      <c r="O3" s="143" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="145"/>
-      <c r="R3" s="152" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="153"/>
-    </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="101"/>
-      <c r="O4" s="101"/>
-      <c r="R4" s="111" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" s="112"/>
-    </row>
-    <row r="5" spans="1:19" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="80" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="115"/>
-      <c r="F5" s="146" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
-      <c r="O5" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="R5" s="111" t="s">
-        <v>177</v>
-      </c>
-      <c r="S5" s="112"/>
-    </row>
-    <row r="6" spans="1:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="104" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="106" t="s">
-        <v>132</v>
-      </c>
-      <c r="R6" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="S6" s="112"/>
-    </row>
-    <row r="7" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" s="106" t="s">
-        <v>133</v>
-      </c>
-      <c r="R7" s="111" t="s">
-        <v>174</v>
-      </c>
-      <c r="S7" s="112"/>
-    </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="115"/>
-      <c r="F8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="O8" s="106" t="s">
-        <v>130</v>
-      </c>
-      <c r="R8" s="111" t="s">
-        <v>100</v>
-      </c>
-      <c r="S8" s="112"/>
-    </row>
-    <row r="9" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="115"/>
-      <c r="F9" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="O9" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="111" t="s">
-        <v>176</v>
-      </c>
-      <c r="S9" s="112"/>
-    </row>
-    <row r="10" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="O10" s="106"/>
-      <c r="R10" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="S10" s="114"/>
-    </row>
-    <row r="11" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="115"/>
-      <c r="O11" s="106"/>
-    </row>
-    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E12" s="115"/>
-      <c r="O12" s="106"/>
-    </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E13" s="115"/>
-      <c r="O13" s="107" t="s">
+      <c r="J20" s="95"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:10" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="145" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="146" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="82"/>
-      <c r="E14" s="115"/>
-      <c r="O14" s="106" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="105" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="103" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="84" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="115"/>
-      <c r="O15" s="106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E16" s="115"/>
-      <c r="O16" s="108" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="136" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="137"/>
-      <c r="C17" s="149"/>
-      <c r="D17" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E17" s="115"/>
-      <c r="L17" s="136" t="s">
-        <v>181</v>
-      </c>
-      <c r="M17" s="138"/>
-    </row>
-    <row r="18" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="B18" s="150" t="s">
+      <c r="C22" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="151"/>
-      <c r="D18" s="78" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="115"/>
-      <c r="L18" s="139" t="s">
+      <c r="D22" s="148" t="s">
         <v>182</v>
       </c>
-      <c r="M18" s="141"/>
-    </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="115"/>
-    </row>
-    <row r="20" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="136" t="s">
-        <v>50</v>
-      </c>
-      <c r="G20" s="137"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="138"/>
-      <c r="L20" s="136" t="s">
-        <v>129</v>
-      </c>
-      <c r="M20" s="138"/>
-      <c r="O20" s="109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="141"/>
-      <c r="L21" s="139">
-        <v>29</v>
-      </c>
-      <c r="M21" s="141"/>
-      <c r="O21" s="110"/>
-    </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="20"/>
-    </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="F23" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="G23" s="123"/>
-      <c r="H23" s="123"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="L23" s="128" t="s">
-        <v>52</v>
-      </c>
-      <c r="M23" s="129"/>
-      <c r="O23" s="76"/>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="119"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="121"/>
-      <c r="F24" s="125"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="126"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="131"/>
-    </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L25" s="20"/>
-    </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L26" s="20"/>
-    </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L27" s="20"/>
-    </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L29" s="20"/>
-    </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L30" s="20"/>
-    </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L31" s="20"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="149" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="F23:J24"/>
-    <mergeCell ref="L23:M24"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F3:J3"/>
-    <mergeCell ref="E5:E21"/>
-    <mergeCell ref="F5:J5"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="B18:C18"/>
+  <mergeCells count="4">
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="E1:E17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F23" location="Sports!A1" display="Sport" xr:uid="{6B818B34-5C1A-4B56-9D99-C9C095AB367D}"/>
-    <hyperlink ref="L23" location="Clothes!A1" display="--&gt; Cloths &lt;--" xr:uid="{4AFCB587-FB69-427B-B596-794F6B87F825}"/>
-    <hyperlink ref="A23" location="'W(KG)'!A1" display="Weight (KG)" xr:uid="{42ECBB62-9DE4-424E-9249-7AA9C607EEE7}"/>
-    <hyperlink ref="O20" location="Kidney!A1" display="كٌلي" xr:uid="{62416BAA-E839-4356-9888-ABA18CBA7CDC}"/>
+    <hyperlink ref="D22" location="Sports!A1" display="Sport" xr:uid="{6B818B34-5C1A-4B56-9D99-C9C095AB367D}"/>
+    <hyperlink ref="F22" location="Clothes!A1" display="--&gt; Cloths &lt;--" xr:uid="{4AFCB587-FB69-427B-B596-794F6B87F825}"/>
+    <hyperlink ref="C22" location="'W(KG)'!A1" display="Weight (KG)" xr:uid="{42ECBB62-9DE4-424E-9249-7AA9C607EEE7}"/>
+    <hyperlink ref="B22" location="Kidney!A1" display="كٌلي" xr:uid="{62416BAA-E839-4356-9888-ABA18CBA7CDC}"/>
+    <hyperlink ref="A22" location="Advise!A1" display="نصائح" xr:uid="{C35FA6C5-EBB3-41DE-AB79-E70D05BA8117}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3143,171 +2981,297 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1DA00-A501-4BFB-B19D-CE5CC9F45810}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB809622-CE8E-45BF-B1B3-C766EF3E4FF3}">
+  <dimension ref="B1:N20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" style="89" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="89" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="89" customWidth="1"/>
-    <col min="4" max="4" width="35" style="89" customWidth="1"/>
-    <col min="5" max="5" width="30" style="89" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="89"/>
+    <col min="1" max="1" width="2.7109375" style="121" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="121" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="121" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="121" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="121" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="121" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="121"/>
+    <col min="8" max="8" width="32.85546875" style="121" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="121"/>
+    <col min="11" max="11" width="8.28515625" style="121" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="121"/>
+    <col min="14" max="14" width="10" style="121" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="121"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="88" t="s">
-        <v>137</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="156" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="156"/>
-    </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="90" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="D3" s="90" t="s">
+    <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="122" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>169</v>
+      </c>
+      <c r="F1" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" s="103"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="125" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="90" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="90" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>150</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>151</v>
-      </c>
-      <c r="D4" s="90" t="s">
+      <c r="I3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="125" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="123" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="150" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="126" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="123" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="90" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="90" t="s">
+    </row>
+    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="125" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="90" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="90" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="90" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="90" t="s">
+      <c r="D9" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="90"/>
-    </row>
-    <row r="7" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="90"/>
-    </row>
-    <row r="8" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="90"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="90"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="125" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13" s="125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="10">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F1" location="Food!A1" display="رجوع" xr:uid="{52FB5C12-1257-46D8-94C6-3733CE25AA0B}"/>
+    <hyperlink ref="D13" r:id="rId1" xr:uid="{9AD4106D-58E4-448A-9998-814F6AEB6103}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{07418A81-66EF-4186-A316-14244F8996C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C9DB0B-D35E-4DED-9057-50342E78E887}">
-  <dimension ref="H1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFE1DA00-A501-4BFB-B19D-CE5CC9F45810}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="58.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="57" style="73" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="35" style="73" customWidth="1"/>
+    <col min="5" max="5" width="30" style="73" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H1" s="157" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="8:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H2" s="158"/>
+    <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="96"/>
+      <c r="G1" s="102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="74" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="74" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="103"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="74" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="74"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74" t="s">
+        <v>145</v>
+      </c>
+      <c r="E7" s="74"/>
+    </row>
+    <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H1:H2"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="H1" location="Food!A1" display="رجوع" xr:uid="{7D1642BC-3503-4178-8816-EA8E974FC866}"/>
+    <hyperlink ref="G1" location="Food!A1" display="رجوع" xr:uid="{5B92A657-1E3B-4D55-BFA9-3D796A7206FE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3317,8 +3281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0621CD-A6D5-4DEE-8E29-96FEA948796F}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3333,134 +3297,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="159" t="s">
-        <v>123</v>
-      </c>
-      <c r="B1" s="160"/>
-      <c r="D1" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="87" t="s">
-        <v>35</v>
+      <c r="A1" s="97" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" s="98"/>
+      <c r="D1" s="69" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="71" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92">
+      <c r="A2" s="76">
         <v>93</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="77">
         <v>45115</v>
       </c>
-      <c r="D2" s="86" t="s">
-        <v>98</v>
+      <c r="D2" s="70" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="94">
+      <c r="A3" s="78">
         <v>90</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="79">
         <v>45135</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="94">
+      <c r="A4" s="78">
         <v>90</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="79">
         <v>45146</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>135</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="94">
+      <c r="A5" s="78">
         <v>88.45</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="79">
         <v>45192</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A6" s="94">
+      <c r="A6" s="78">
         <v>86.65</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="79">
         <v>45204</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="94">
+      <c r="A7" s="78">
         <v>86.45</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="79">
         <v>45211</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="94">
-        <v>85.55</v>
-      </c>
-      <c r="B8" s="95">
-        <v>45227</v>
-      </c>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
     </row>
     <row r="9" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="96"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="80"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="94"/>
-      <c r="B10" s="96"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
     </row>
     <row r="11" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="96"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="80"/>
     </row>
     <row r="12" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="96"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
     </row>
     <row r="13" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="96"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
     </row>
     <row r="14" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="96"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
     </row>
     <row r="15" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="B15" s="96"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="80"/>
     </row>
     <row r="16" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="96"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
     </row>
     <row r="17" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="80"/>
     </row>
     <row r="18" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="94"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
     </row>
     <row r="19" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="94"/>
-      <c r="B19" s="96"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
     </row>
     <row r="20" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="96"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="80"/>
     </row>
     <row r="21" spans="1:2" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="96"/>
+      <c r="A21" s="78"/>
+      <c r="B21" s="80"/>
     </row>
     <row r="22" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
+      <c r="A22" s="81"/>
+      <c r="B22" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3484,315 +3441,315 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="20" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="24" style="20" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" style="20" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="20" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="17.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25" style="17" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="24" style="17" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="17" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="K1" s="102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="107" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="32" t="s">
+      <c r="F2" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="53"/>
+      <c r="K2" s="103"/>
+    </row>
+    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="107"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="100"/>
+      <c r="F3" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="107"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="32"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="58">
+        <v>44</v>
+      </c>
+      <c r="H4" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="107"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="32"/>
+      <c r="E5" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="110"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="107"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="32"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="42" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="38"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="114"/>
+      <c r="F7" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="107"/>
+      <c r="B8" s="118" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="119">
+        <v>1.8229166666666667</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="107"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="116"/>
+      <c r="F9" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="120"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="107"/>
+      <c r="B10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="32"/>
+    </row>
+    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="157" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="167" t="s">
-        <v>77</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="B11" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="E11" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" s="108" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="107"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="32"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="108"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="32"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="62"/>
+      <c r="I13" s="108"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="107"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="32"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="62"/>
+      <c r="I14" s="64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="107"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="32"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="63"/>
+      <c r="I15" s="64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="107"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="32"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="107" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="161" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="59"/>
-      <c r="K2" s="158"/>
-    </row>
-    <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="167"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="162"/>
-      <c r="F3" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="167"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="38"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="63" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="64">
-        <v>44</v>
-      </c>
-      <c r="H4" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="169" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="167"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="38"/>
-      <c r="E5" s="172" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" s="170"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="167"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="38"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="167" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="174"/>
-      <c r="F7" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="56"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="167"/>
-      <c r="B8" s="178" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="175" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="179">
-        <v>1.8229166666666667</v>
-      </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="167"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" s="176"/>
-      <c r="F9" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="167"/>
-      <c r="B10" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="167" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="38"/>
-      <c r="E11" s="177" t="s">
-        <v>93</v>
-      </c>
-      <c r="F11" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="168" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="167"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="38"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="67" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="168"/>
-    </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="167"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="38"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="68"/>
-      <c r="I13" s="168"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="167"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="38"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="68"/>
-      <c r="I14" s="70" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="167"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="38"/>
-      <c r="E15" s="171"/>
-      <c r="F15" s="69"/>
-      <c r="I15" s="70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="167"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="167" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="38"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="167"/>
+      <c r="A18" s="107"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="38"/>
+      <c r="C18" s="32"/>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="167"/>
+      <c r="A19" s="107"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="38"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="39"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="164" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="165"/>
-      <c r="C22" s="166"/>
+      <c r="A22" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="105"/>
+      <c r="C22" s="106"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>66</v>
+      <c r="C24" s="20" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +3772,7 @@
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{A40B321C-7497-4B17-AF21-5BD047FA9B6F}"/>
     <hyperlink ref="B8:B9" r:id="rId2" display="الحفاظ علي البنطلون الجينس" xr:uid="{80534148-8D07-4D68-89E8-63A2E4F9B37A}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{A8AC4D05-BBB1-4608-A3B3-769EFC4217EA}"/>
+    <hyperlink ref="B11" r:id="rId3" display="انواع الريحة لازم في الخطوبة" xr:uid="{A8AC4D05-BBB1-4608-A3B3-769EFC4217EA}"/>
     <hyperlink ref="B17" r:id="rId4" xr:uid="{C931AD22-E55C-4A63-B7BC-77FEA9970C9C}"/>
     <hyperlink ref="K1" location="Food!A1" display="رجوع" xr:uid="{7DBF7D84-1B3C-4881-AC89-8396D155CCD4}"/>
     <hyperlink ref="B2" r:id="rId5" xr:uid="{E36F7CD8-3CB4-4C72-B10C-E8754E5F628C}"/>
@@ -3830,14 +3787,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C403D97A-3411-4C47-932B-8CF698C716AF}">
-  <dimension ref="A1"/>
+  <dimension ref="V1:V2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="V1" sqref="V1:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="22:22" x14ac:dyDescent="0.25">
+      <c r="V1" s="102" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="22:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V2" s="103"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="V1:V2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="V1" location="Food!A1" display="رجوع" xr:uid="{CB27EE9F-6C5D-4CEB-9555-993D549B8984}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3861,57 +3833,57 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="102" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="157" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E2" s="3">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="158"/>
+        <v>19</v>
+      </c>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3">
         <v>15</v>
@@ -3920,18 +3892,18 @@
         <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3">
         <v>15</v>
@@ -3940,38 +3912,38 @@
         <v>3</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="3">
         <v>15</v>
@@ -3980,18 +3952,18 @@
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="3">
         <v>15</v>
@@ -4000,18 +3972,18 @@
         <v>3</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3">
         <v>50</v>
@@ -4020,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4104,32 +4076,32 @@
       <c r="F18" s="3"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="100" t="s">
-        <v>165</v>
+      <c r="B20" s="84" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="100" t="s">
-        <v>168</v>
+      <c r="B21" s="84" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="100" t="s">
-        <v>166</v>
+      <c r="B22" s="84" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="100" t="s">
-        <v>167</v>
+      <c r="B23" s="84" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="99" t="s">
-        <v>170</v>
+      <c r="B24" s="83" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="99"/>
+      <c r="B26" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
